--- a/biology/Botanique/Winteraceae/Winteraceae.xlsx
+++ b/biology/Botanique/Winteraceae/Winteraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Wintéracées est constituée de plantes angiospermes archaïques ; elle contient de quatre à neuf genres.
 Ce sont des arbres ou des arbustes de l'hémisphère sud Malaisie, Australie, Nouvelle-Zélande, Amérique du Sud et Amérique centrale.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom est issu du genre Wintera et de l'espèce Wintera granatensis, laquelle fut ensuite nommée par le naturaliste allemand Johann Reinhold Forster Drimys winteri en hommage au Capitaine J. Winter qui participa aux côtés de Francis Drake à la lutte contre les colonies espagnoles du Golfe du Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom est issu du genre Wintera et de l'espèce Wintera granatensis, laquelle fut ensuite nommée par le naturaliste allemand Johann Reinhold Forster Drimys winteri en hommage au Capitaine J. Winter qui participa aux côtés de Francis Drake à la lutte contre les colonies espagnoles du Golfe du Mexique.
 Le genre-type Wintera Murray qui donne son nom aux Winteraceae fut incorporé dans le genre Drimys J. R. Forst. &amp; G. Forst.
 Par ailleurs, eu égard aux règles de nomenclature botanique, l'espèce Canella alba pris successivement le nom de Canella winterana puis, le genre Canella étant déjà utilisé dans la famille des Canellaceae, le nom de Drimys winteri.
 C'est un des rares exemples où un nom de famille dérive d'un genre invalidé, lequel est simplement rappelé par le nom spécifique winteri.
@@ -546,14 +560,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (28 mars 2010)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (28 mars 2010) :
 genre Drimys
 genre Pseudowintera
 genre Takhtajania
 genre Zygogynum
-Selon NCBI  (28 mars 2010)[3] :
+Selon NCBI  (28 mars 2010) :
 genre Bubbia
 genre Drimys
 genre Exospermum
@@ -561,7 +577,7 @@
 genre Takhtajania
 genre Tasmannia
 genre Zygogynum
-Selon DELTA Angio           (28 mars 2010)[4] :
+Selon DELTA Angio           (28 mars 2010) :
 genre Drimys
 genre Belliolum
 genre Bubbia
@@ -571,7 +587,7 @@
 genre Tasmannia
 genre Tetrathalamus
 genre Zygogynum
-Selon ITIS      (28 mars 2010)[5] :
+Selon ITIS      (28 mars 2010) :
 genre Drimys Forster &amp; Forster f.</t>
         </is>
       </c>
@@ -600,9 +616,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (28 mars 2010)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (28 mars 2010) :
 genre Bubbia
 Bubbia comptonii
 genre Drimys
